--- a/data_year/zb/运输和邮电/企业信息化及电子商务情况/按行业分有电子商务交易活动的企业数比重.xlsx
+++ b/data_year/zb/运输和邮电/企业信息化及电子商务情况/按行业分有电子商务交易活动的企业数比重.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -984,6 +984,64 @@
         <v>3.7</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
